--- a/data/processed/optimized_portfolio.xlsx
+++ b/data/processed/optimized_portfolio.xlsx
@@ -1,44 +1,419 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27325"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\karal\PycharmProjects\Athena-Prototype\data\processed\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A05EFF61-B4D6-49FE-92C4-88C4BC36C1E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Risk Metrics" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Risk Metrics" sheetId="2" r:id="rId2"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="117">
+  <si>
+    <t>Ticker</t>
+  </si>
+  <si>
+    <t>Weight</t>
+  </si>
+  <si>
+    <t>GE</t>
+  </si>
+  <si>
+    <t>UPS</t>
+  </si>
+  <si>
+    <t>ITW</t>
+  </si>
+  <si>
+    <t>NSC</t>
+  </si>
+  <si>
+    <t>PAYX</t>
+  </si>
+  <si>
+    <t>RVTY</t>
+  </si>
+  <si>
+    <t>BDX</t>
+  </si>
+  <si>
+    <t>MDT</t>
+  </si>
+  <si>
+    <t>CVS</t>
+  </si>
+  <si>
+    <t>MRK</t>
+  </si>
+  <si>
+    <t>QCOM</t>
+  </si>
+  <si>
+    <t>NTAP</t>
+  </si>
+  <si>
+    <t>NVDA</t>
+  </si>
+  <si>
+    <t>HPE</t>
+  </si>
+  <si>
+    <t>CSCO</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>PEG</t>
+  </si>
+  <si>
+    <t>EIX</t>
+  </si>
+  <si>
+    <t>AES</t>
+  </si>
+  <si>
+    <t>VST</t>
+  </si>
+  <si>
+    <t>LYB</t>
+  </si>
+  <si>
+    <t>DOW</t>
+  </si>
+  <si>
+    <t>AMCR</t>
+  </si>
+  <si>
+    <t>APD</t>
+  </si>
+  <si>
+    <t>CF</t>
+  </si>
+  <si>
+    <t>ARE</t>
+  </si>
+  <si>
+    <t>VICI</t>
+  </si>
+  <si>
+    <t>DOC</t>
+  </si>
+  <si>
+    <t>O</t>
+  </si>
+  <si>
+    <t>HST</t>
+  </si>
+  <si>
+    <t>VZ</t>
+  </si>
+  <si>
+    <t>NWSA</t>
+  </si>
+  <si>
+    <t>NWS</t>
+  </si>
+  <si>
+    <t>IPG</t>
+  </si>
+  <si>
+    <t>FOX</t>
+  </si>
+  <si>
+    <t>MET</t>
+  </si>
+  <si>
+    <t>TROW</t>
+  </si>
+  <si>
+    <t>TRV</t>
+  </si>
+  <si>
+    <t>HIG</t>
+  </si>
+  <si>
+    <t>EG</t>
+  </si>
+  <si>
+    <t>KMB</t>
+  </si>
+  <si>
+    <t>CL</t>
+  </si>
+  <si>
+    <t>CLX</t>
+  </si>
+  <si>
+    <t>CAG</t>
+  </si>
+  <si>
+    <t>HRL</t>
+  </si>
+  <si>
+    <t>FANG</t>
+  </si>
+  <si>
+    <t>DVN</t>
+  </si>
+  <si>
+    <t>KMI</t>
+  </si>
+  <si>
+    <t>CVX</t>
+  </si>
+  <si>
+    <t>XOM</t>
+  </si>
+  <si>
+    <t>BWA</t>
+  </si>
+  <si>
+    <t>BBY</t>
+  </si>
+  <si>
+    <t>HD</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>DRI</t>
+  </si>
+  <si>
+    <t>FTV</t>
+  </si>
+  <si>
+    <t>TXT</t>
+  </si>
+  <si>
+    <t>EFX</t>
+  </si>
+  <si>
+    <t>IR</t>
+  </si>
+  <si>
+    <t>PWR</t>
+  </si>
+  <si>
+    <t>HCA</t>
+  </si>
+  <si>
+    <t>COO</t>
+  </si>
+  <si>
+    <t>TECH</t>
+  </si>
+  <si>
+    <t>BAX</t>
+  </si>
+  <si>
+    <t>GILD</t>
+  </si>
+  <si>
+    <t>MPWR</t>
+  </si>
+  <si>
+    <t>ORCL</t>
+  </si>
+  <si>
+    <t>ROP</t>
+  </si>
+  <si>
+    <t>ADI</t>
+  </si>
+  <si>
+    <t>CRM</t>
+  </si>
+  <si>
+    <t>SRE</t>
+  </si>
+  <si>
+    <t>AWK</t>
+  </si>
+  <si>
+    <t>CNP</t>
+  </si>
+  <si>
+    <t>CEG</t>
+  </si>
+  <si>
+    <t>PCG</t>
+  </si>
+  <si>
+    <t>LIN</t>
+  </si>
+  <si>
+    <t>NUE</t>
+  </si>
+  <si>
+    <t>MLM</t>
+  </si>
+  <si>
+    <t>SHW</t>
+  </si>
+  <si>
+    <t>VMC</t>
+  </si>
+  <si>
+    <t>INVH</t>
+  </si>
+  <si>
+    <t>WY</t>
+  </si>
+  <si>
+    <t>UDR</t>
+  </si>
+  <si>
+    <t>EQIX</t>
+  </si>
+  <si>
+    <t>DLR</t>
+  </si>
+  <si>
+    <t>TMUS</t>
+  </si>
+  <si>
+    <t>GOOGL</t>
+  </si>
+  <si>
+    <t>GOOG</t>
+  </si>
+  <si>
+    <t>META</t>
+  </si>
+  <si>
+    <t>EA</t>
+  </si>
+  <si>
+    <t>GPN</t>
+  </si>
+  <si>
+    <t>AON</t>
+  </si>
+  <si>
+    <t>NDAQ</t>
+  </si>
+  <si>
+    <t>AJG</t>
+  </si>
+  <si>
+    <t>KKR</t>
+  </si>
+  <si>
+    <t>PG</t>
+  </si>
+  <si>
+    <t>LW</t>
+  </si>
+  <si>
+    <t>KR</t>
+  </si>
+  <si>
+    <t>COST</t>
+  </si>
+  <si>
+    <t>WMT</t>
+  </si>
+  <si>
+    <t>HES</t>
+  </si>
+  <si>
+    <t>OXY</t>
+  </si>
+  <si>
+    <t>TRGP</t>
+  </si>
+  <si>
+    <t>MPC</t>
+  </si>
+  <si>
+    <t>MRO</t>
+  </si>
+  <si>
+    <t>DHI</t>
+  </si>
+  <si>
+    <t>POOL</t>
+  </si>
+  <si>
+    <t>GM</t>
+  </si>
+  <si>
+    <t>LVS</t>
+  </si>
+  <si>
+    <t>RCL</t>
+  </si>
+  <si>
+    <t>Metric</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>Value at Risk (VaR)</t>
+  </si>
+  <si>
+    <t>Max Drawdown</t>
+  </si>
+  <si>
+    <t>Sharpe Ratio</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -47,94 +422,118 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="3">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A3A92344-05B4-4003-A2BF-4957DC48FDB3}" name="Table1" displayName="Table1" ref="A1:B112" totalsRowCount="1" headerRowDxfId="0" headerRowBorderDxfId="1" tableBorderDxfId="2">
+  <autoFilter ref="A1:B111" xr:uid="{A3A92344-05B4-4003-A2BF-4957DC48FDB3}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B111">
+    <sortCondition descending="1" ref="B1:B111"/>
+  </sortState>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{4A8D979F-9CC4-49D1-A2CB-FD65CCA0F358}" name="Ticker"/>
+    <tableColumn id="2" xr3:uid="{F699F445-616B-4AF4-8B9B-B2177A04F8F7}" name="Weight"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -421,190 +820,952 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B111"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
+      <selection activeCell="B57" sqref="B57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="9.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Ticker</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Weight</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>GOOGL</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>3.215126719030058e-07</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>GOOG</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>3.088231508851931e-09</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>-3.603902130445475e-07</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>LYV</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>-8.737587024339641e-08</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>META</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>NFLX</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>1.125042891738945e-07</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>NWSA</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>-3.235413849760634e-06</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>NWS</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>-0.9999965143709572</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>TMUS</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>1.066089051715557e-08</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>DIS</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>-2.502151930961404e-07</v>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2">
+        <v>2.897200009707853E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3">
+        <v>2.8972000097028518E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B4">
+        <v>2.8972000097016282E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B5">
+        <v>2.8972000096995399E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B6">
+        <v>2.897200009699424E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B7">
+        <v>2.8972000096985549E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>48</v>
+      </c>
+      <c r="B8">
+        <v>2.8972000096973129E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>51</v>
+      </c>
+      <c r="B9">
+        <v>2.8972000096936859E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10">
+        <v>2.8790444187444801E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11">
+        <v>2.862500668175615E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12">
+        <v>2.861807382205242E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13">
+        <v>2.8533772010345269E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>46</v>
+      </c>
+      <c r="B14">
+        <v>2.8206054935147919E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>45</v>
+      </c>
+      <c r="B15">
+        <v>2.8110737164700451E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>37</v>
+      </c>
+      <c r="B16">
+        <v>2.809583891479376E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17">
+        <v>2.7827741369065202E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>10</v>
+      </c>
+      <c r="B18">
+        <v>2.777011421471751E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19">
+        <v>2.7606641378929531E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>32</v>
+      </c>
+      <c r="B20">
+        <v>2.7599774033343901E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>2.7322890129417191E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>53</v>
+      </c>
+      <c r="B22">
+        <v>2.6971999897198919E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>52</v>
+      </c>
+      <c r="B23">
+        <v>2.6971999897143401E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>36</v>
+      </c>
+      <c r="B24">
+        <v>2.6971999897114109E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>30</v>
+      </c>
+      <c r="B25">
+        <v>2.4473101948030419E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>28</v>
+      </c>
+      <c r="B26">
+        <v>2.3164293432777941E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>55</v>
+      </c>
+      <c r="B27">
+        <v>1.9825065058081449E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>3</v>
+      </c>
+      <c r="B28">
+        <v>1.8157591214633041E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>42</v>
+      </c>
+      <c r="B29">
+        <v>1.7288009489368501E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>49</v>
+      </c>
+      <c r="B30">
+        <v>1.7218734789687381E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>15</v>
+      </c>
+      <c r="B31">
+        <v>1.6097057276948771E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>29</v>
+      </c>
+      <c r="B32">
+        <v>1.3826285735580311E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>44</v>
+      </c>
+      <c r="B33">
+        <v>1.2810193450803359E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>27</v>
+      </c>
+      <c r="B34">
+        <v>1.2315763830309211E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>18</v>
+      </c>
+      <c r="B35">
+        <v>1.1583008722231201E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>43</v>
+      </c>
+      <c r="B36">
+        <v>1.0138916454623869E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>8</v>
+      </c>
+      <c r="B37">
+        <v>9.8733426595485809E-3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>11</v>
+      </c>
+      <c r="B38">
+        <v>8.9920000991007883E-3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>16</v>
+      </c>
+      <c r="B39">
+        <v>8.6437503447329266E-3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>9</v>
+      </c>
+      <c r="B40">
+        <v>8.5383167348981187E-3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>6</v>
+      </c>
+      <c r="B41">
+        <v>8.475373123899595E-3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>4</v>
+      </c>
+      <c r="B42">
+        <v>8.0588268383498824E-3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>54</v>
+      </c>
+      <c r="B43">
+        <v>7.9608987032386731E-3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>2</v>
+      </c>
+      <c r="B44">
+        <v>7.8811118012133367E-3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>56</v>
+      </c>
+      <c r="B45">
+        <v>7.5002625471876066E-3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>31</v>
+      </c>
+      <c r="B46">
+        <v>7.2431006143197849E-3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>5</v>
+      </c>
+      <c r="B47">
+        <v>7.2079067252282534E-3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>14</v>
+      </c>
+      <c r="B48">
+        <v>6.9919999002570369E-3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>12</v>
+      </c>
+      <c r="B49">
+        <v>6.9919998997538041E-3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>38</v>
+      </c>
+      <c r="B50">
+        <v>6.9919998995505474E-3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>21</v>
+      </c>
+      <c r="B51">
+        <v>6.991999899523124E-3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>13</v>
+      </c>
+      <c r="B52">
+        <v>6.9919998994926224E-3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>34</v>
+      </c>
+      <c r="B53">
+        <v>6.9919998994094736E-3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>33</v>
+      </c>
+      <c r="B54">
+        <v>6.9919998993813173E-3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>7</v>
+      </c>
+      <c r="B55">
+        <v>6.9919998993742353E-3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>35</v>
+      </c>
+      <c r="B56">
+        <v>6.9919998993008452E-3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>95</v>
+      </c>
+      <c r="B57">
+        <v>-6.9919998993588873E-3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>104</v>
+      </c>
+      <c r="B58">
+        <v>-6.9919998995059364E-3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>76</v>
+      </c>
+      <c r="B59">
+        <v>-6.9919998995242759E-3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>66</v>
+      </c>
+      <c r="B60">
+        <v>-6.9919998995311809E-3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>105</v>
+      </c>
+      <c r="B61">
+        <v>-6.9919998996202564E-3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>103</v>
+      </c>
+      <c r="B62">
+        <v>-6.9919998996365368E-3</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>102</v>
+      </c>
+      <c r="B63">
+        <v>-6.9919998997784744E-3</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>106</v>
+      </c>
+      <c r="B64">
+        <v>-6.9919998998094817E-3</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>99</v>
+      </c>
+      <c r="B65">
+        <v>-7.4301266640761261E-3</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>77</v>
+      </c>
+      <c r="B66">
+        <v>-7.4670712020409834E-3</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>101</v>
+      </c>
+      <c r="B67">
+        <v>-7.5938094300404459E-3</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>62</v>
+      </c>
+      <c r="B68">
+        <v>-7.6050486200328416E-3</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>74</v>
+      </c>
+      <c r="B69">
+        <v>-7.786794881996708E-3</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>87</v>
+      </c>
+      <c r="B70">
+        <v>-7.9303675031481696E-3</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>72</v>
+      </c>
+      <c r="B71">
+        <v>-8.1520874391183048E-3</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>97</v>
+      </c>
+      <c r="B72">
+        <v>-8.1662439431253384E-3</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>110</v>
+      </c>
+      <c r="B73">
+        <v>-8.3033073621983592E-3</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>65</v>
+      </c>
+      <c r="B74">
+        <v>-8.5770669361803515E-3</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>73</v>
+      </c>
+      <c r="B75">
+        <v>-8.7319920727588363E-3</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>82</v>
+      </c>
+      <c r="B76">
+        <v>-8.8378046467800127E-3</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>58</v>
+      </c>
+      <c r="B77">
+        <v>-8.8543920464280237E-3</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>83</v>
+      </c>
+      <c r="B78">
+        <v>-8.9920000992278325E-3</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>84</v>
+      </c>
+      <c r="B79">
+        <v>-8.9920000993137881E-3</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>109</v>
+      </c>
+      <c r="B80">
+        <v>-8.9920000994155938E-3</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>93</v>
+      </c>
+      <c r="B81">
+        <v>-1.258100931010863E-2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>94</v>
+      </c>
+      <c r="B82">
+        <v>-1.6054690363512938E-2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>92</v>
+      </c>
+      <c r="B83">
+        <v>-1.666531692090439E-2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>91</v>
+      </c>
+      <c r="B84">
+        <v>-1.689717582644213E-2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>78</v>
+      </c>
+      <c r="B85">
+        <v>-2.0156958575523229E-2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>108</v>
+      </c>
+      <c r="B86">
+        <v>-2.537131509349869E-2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>90</v>
+      </c>
+      <c r="B87">
+        <v>-2.6971999896623342E-2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>71</v>
+      </c>
+      <c r="B88">
+        <v>-2.6971999896810761E-2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>88</v>
+      </c>
+      <c r="B89">
+        <v>-2.705796962411228E-2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>89</v>
+      </c>
+      <c r="B90">
+        <v>-2.7086880672220821E-2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>98</v>
+      </c>
+      <c r="B91">
+        <v>-2.711154514365231E-2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>68</v>
+      </c>
+      <c r="B92">
+        <v>-2.715935185605399E-2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>107</v>
+      </c>
+      <c r="B93">
+        <v>-2.7296982559889649E-2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>63</v>
+      </c>
+      <c r="B94">
+        <v>-2.7472974843972191E-2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>80</v>
+      </c>
+      <c r="B95">
+        <v>-2.779432424805298E-2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>85</v>
+      </c>
+      <c r="B96">
+        <v>-2.7870766373683829E-2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>69</v>
+      </c>
+      <c r="B97">
+        <v>-2.7934871302643671E-2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>81</v>
+      </c>
+      <c r="B98">
+        <v>-2.7952578251370611E-2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>79</v>
+      </c>
+      <c r="B99">
+        <v>-2.8111069039102599E-2</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>86</v>
+      </c>
+      <c r="B100">
+        <v>-2.8758578015067829E-2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>59</v>
+      </c>
+      <c r="B101">
+        <v>-2.8810888638220459E-2</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>100</v>
+      </c>
+      <c r="B102">
+        <v>-2.881464043365E-2</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>67</v>
+      </c>
+      <c r="B103">
+        <v>-2.897200009634705E-2</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>61</v>
+      </c>
+      <c r="B104">
+        <v>-2.8972000096891489E-2</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>96</v>
+      </c>
+      <c r="B105">
+        <v>-2.8972000096908271E-2</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>75</v>
+      </c>
+      <c r="B106">
+        <v>-2.8972000096918391E-2</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>70</v>
+      </c>
+      <c r="B107">
+        <v>-2.89720000969735E-2</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>60</v>
+      </c>
+      <c r="B108">
+        <v>-2.897200009701742E-2</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>111</v>
+      </c>
+      <c r="B109">
+        <v>-2.897200009701819E-2</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>64</v>
+      </c>
+      <c r="B110">
+        <v>-2.8972000097076761E-2</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>57</v>
+      </c>
+      <c r="B111">
+        <v>-2.8972000097084841E-2</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Metric</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Value</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Value at Risk (VaR)</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>-0.04079512314510325</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Max Drawdown</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>-0.7925141470225894</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Sharpe Ratio</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>-0.03275021589942245</v>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B2">
+        <v>-1.080955514698439E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>115</v>
+      </c>
+      <c r="B3">
+        <v>-0.35285915487251729</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B4">
+        <v>-2.3731571128390412</v>
       </c>
     </row>
   </sheetData>
